--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2531227.570412021</v>
+        <v>2627897.546896393</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836238</v>
+        <v>6654055.582836235</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095096</v>
+        <v>806345.8827095098</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>150.8397700069006</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>2.823190303973502</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -817,16 +819,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>43.86617416758092</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>20.3298104615455</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>115.7314066566672</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>49.0995089918155</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>15.91242278797887</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>54.65520119711156</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>163.2962083791359</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>61.37854666500527</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,31 +1290,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>83.97130619250086</v>
       </c>
       <c r="G10" t="n">
-        <v>7.514855731544839</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="12">
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1528,13 +1530,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1576,25 +1578,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>96.11112955312274</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>40.13771612386414</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -1813,25 +1815,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>60.61092415646818</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>215.5479038983557</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1895,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2014,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2056,13 +2058,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>279.8345436267089</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>14.20188851094976</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2178,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247734</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>43.54171107304214</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>36.68021964049289</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>70.77558225586421</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2652,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247734</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>37.34355887816587</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>92.4890407402189</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2770,13 +2772,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2889,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247734</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,10 +2952,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>106.5867442799587</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2968,7 +2970,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3007,13 +3009,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>62.1203315259605</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>2.141218693102969</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>143.1092883789099</v>
       </c>
     </row>
     <row r="35">
@@ -3278,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534535</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873199</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -3314,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>52.06838211965194</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>203.4068132191973</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3600,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>52.53369908016746</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3724,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3749,16 +3751,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417124</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534535</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
@@ -3797,13 +3799,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3837,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247747</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T42" t="n">
         <v>190.7165703189231</v>
@@ -3901,22 +3903,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>28.20584125154466</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3958,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>89.58614736176918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3986,16 +3988,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534535</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396201</v>
@@ -4037,7 +4039,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4074,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4188,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -4195,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>43.54171107304315</v>
       </c>
       <c r="Y46" t="n">
-        <v>206.7685260779546</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1327.372931623164</v>
+        <v>885.7444020895362</v>
       </c>
       <c r="C2" t="n">
-        <v>958.4104146827526</v>
+        <v>885.7444020895362</v>
       </c>
       <c r="D2" t="n">
-        <v>958.4104146827526</v>
+        <v>885.7444020895362</v>
       </c>
       <c r="E2" t="n">
-        <v>806.0470106353782</v>
+        <v>885.7444020895362</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>474.7584972999286</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>56.79468919811546</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4328,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1717.512263598976</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1717.512263598976</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1717.512263598976</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1327.372931623164</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="3">
@@ -4383,40 +4385,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>394.4025473335336</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C4" t="n">
-        <v>394.4025473335336</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>394.4025473335336</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>246.4894537511404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U4" t="n">
-        <v>683.8197173704941</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="V4" t="n">
-        <v>683.8197173704941</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="W4" t="n">
-        <v>394.4025473335336</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="X4" t="n">
-        <v>394.4025473335336</v>
+        <v>243.4143268306406</v>
       </c>
       <c r="Y4" t="n">
-        <v>394.4025473335336</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>877.172715966035</v>
+        <v>1732.515907621104</v>
       </c>
       <c r="C5" t="n">
-        <v>877.172715966035</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D5" t="n">
-        <v>518.9070173592845</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>518.9070173592845</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>511.961516610081</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>498.038112548672</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>170.8433925846748</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733119</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224069</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N5" t="n">
         <v>1836.345445977174</v>
@@ -4583,10 +4585,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4595,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834949</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.546461473041</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.546461473041</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>1640.777806202927</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X5" t="n">
-        <v>1267.312047941847</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="Y5" t="n">
-        <v>877.172715966035</v>
+        <v>1732.515907621104</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2039.036242963445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C7" t="n">
-        <v>2039.036242963445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D7" t="n">
-        <v>2039.036242963445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>2039.036242963445</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>2039.036242963445</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>2039.036242963445</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>2039.036242963445</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>2259.828822106975</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>2259.828822106975</v>
+        <v>672.9217102699579</v>
       </c>
       <c r="W7" t="n">
-        <v>2259.828822106975</v>
+        <v>383.5045402329973</v>
       </c>
       <c r="X7" t="n">
-        <v>2259.828822106975</v>
+        <v>383.5045402329973</v>
       </c>
       <c r="Y7" t="n">
-        <v>2039.036242963445</v>
+        <v>383.5045402329973</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>864.038634162993</v>
+        <v>1117.513150920515</v>
       </c>
       <c r="C8" t="n">
-        <v>495.0761172225813</v>
+        <v>1117.513150920515</v>
       </c>
       <c r="D8" t="n">
-        <v>136.8104186158308</v>
+        <v>1117.513150920515</v>
       </c>
       <c r="E8" t="n">
-        <v>136.8104186158308</v>
+        <v>1117.513150920515</v>
       </c>
       <c r="F8" t="n">
-        <v>129.8649178666274</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>115.9415138052183</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4832,22 +4834,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834949</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.546461473041</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V8" t="n">
-        <v>1993.546461473041</v>
+        <v>1881.118241157407</v>
       </c>
       <c r="W8" t="n">
-        <v>1640.777806202927</v>
+        <v>1881.118241157407</v>
       </c>
       <c r="X8" t="n">
-        <v>1640.777806202927</v>
+        <v>1507.652482896327</v>
       </c>
       <c r="Y8" t="n">
-        <v>1250.638474227115</v>
+        <v>1117.513150920515</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4883,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>257.3069090307627</v>
+        <v>444.0275768541694</v>
       </c>
       <c r="C10" t="n">
-        <v>257.3069090307627</v>
+        <v>275.0913939262625</v>
       </c>
       <c r="D10" t="n">
-        <v>107.1902696184269</v>
+        <v>275.0913939262625</v>
       </c>
       <c r="E10" t="n">
-        <v>107.1902696184269</v>
+        <v>275.0913939262625</v>
       </c>
       <c r="F10" t="n">
-        <v>107.1902696184269</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036446</v>
@@ -4966,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610024</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610024</v>
+        <v>444.0275768541694</v>
       </c>
       <c r="W10" t="n">
-        <v>438.9553738610024</v>
+        <v>444.0275768541694</v>
       </c>
       <c r="X10" t="n">
-        <v>438.9553738610024</v>
+        <v>444.0275768541694</v>
       </c>
       <c r="Y10" t="n">
-        <v>438.9553738610024</v>
+        <v>444.0275768541694</v>
       </c>
     </row>
     <row r="11">
@@ -5018,16 +5020,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
@@ -5042,25 +5044,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1803.682313196074</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2337.214217867999</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N11" t="n">
-        <v>2883.993034926781</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O11" t="n">
-        <v>3547.201365906985</v>
+        <v>3944.053400686433</v>
       </c>
       <c r="P11" t="n">
-        <v>4260.556453353931</v>
+        <v>4338.827767043611</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5094,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5160,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>656.9233744498081</v>
+        <v>973.7726509601081</v>
       </c>
       <c r="C13" t="n">
-        <v>656.9233744498081</v>
+        <v>804.8364680322012</v>
       </c>
       <c r="D13" t="n">
-        <v>506.8067350374723</v>
+        <v>654.7198286198654</v>
       </c>
       <c r="E13" t="n">
         <v>506.8067350374723</v>
@@ -5224,25 +5226,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258584</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U13" t="n">
-        <v>1355.978560215026</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="V13" t="n">
-        <v>1355.978560215026</v>
+        <v>1604.203245831895</v>
       </c>
       <c r="W13" t="n">
-        <v>1066.561390178065</v>
+        <v>1604.203245831895</v>
       </c>
       <c r="X13" t="n">
-        <v>838.5718392800478</v>
+        <v>1376.213694933878</v>
       </c>
       <c r="Y13" t="n">
-        <v>838.5718392800478</v>
+        <v>1155.421115790348</v>
       </c>
     </row>
     <row r="14">
@@ -5258,16 +5260,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5276,25 +5278,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>416.3606924710451</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>750.1800661608916</v>
       </c>
       <c r="L14" t="n">
-        <v>1963.918173296941</v>
+        <v>1614.698881814246</v>
       </c>
       <c r="M14" t="n">
-        <v>2497.450077968866</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N14" t="n">
-        <v>3044.228895027648</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O14" t="n">
-        <v>3547.201365906985</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
         <v>4719.034655862919</v>
@@ -5358,10 +5360,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>654.9300288380085</v>
+        <v>824.3287722635405</v>
       </c>
       <c r="C16" t="n">
-        <v>485.9938459101016</v>
+        <v>655.3925893356336</v>
       </c>
       <c r="D16" t="n">
-        <v>485.9938459101016</v>
+        <v>655.3925893356336</v>
       </c>
       <c r="E16" t="n">
-        <v>485.9938459101016</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="F16" t="n">
-        <v>339.1038984121913</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H16" t="n">
         <v>192.8867116300491</v>
@@ -5461,25 +5463,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1866.513008862232</v>
+        <v>1805.289853148628</v>
       </c>
       <c r="T16" t="n">
-        <v>1644.746393431758</v>
+        <v>1805.289853148628</v>
       </c>
       <c r="U16" t="n">
-        <v>1427.021237978873</v>
+        <v>1516.186986274271</v>
       </c>
       <c r="V16" t="n">
-        <v>1172.336749772986</v>
+        <v>1516.186986274271</v>
       </c>
       <c r="W16" t="n">
-        <v>882.9195797360259</v>
+        <v>1226.76981623731</v>
       </c>
       <c r="X16" t="n">
-        <v>654.9300288380085</v>
+        <v>1226.76981623731</v>
       </c>
       <c r="Y16" t="n">
-        <v>654.9300288380085</v>
+        <v>1005.97723709378</v>
       </c>
     </row>
     <row r="17">
@@ -5492,46 +5494,46 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>425.1871727453687</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1079.910504880668</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1530.944718129077</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2064.476622801002</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N17" t="n">
-        <v>3044.228895027648</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O17" t="n">
-        <v>3547.201365906985</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
         <v>4719.034655862919</v>
@@ -5543,16 +5545,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3154.542034367489</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>2980.089005086362</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>2671.917140419655</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>4227.758635317988</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>3530.517670152511</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>3322.757371387557</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>432.2000540015823</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C19" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
         <v>95.56103444839442</v>
@@ -5704,19 +5706,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1170.39935408009</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>1170.39935408009</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W19" t="n">
-        <v>880.9821840431298</v>
+        <v>894.9278122480886</v>
       </c>
       <c r="X19" t="n">
-        <v>652.9926331451124</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="Y19" t="n">
-        <v>432.2000540015823</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="20">
@@ -5729,19 +5731,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5750,46 +5752,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>351.301436796792</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>685.1208104866384</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1549.639626139993</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2528.189928969822</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>3507.942201196468</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O20" t="n">
-        <v>4010.914672075805</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3154.542034367489</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>2980.089005086362</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>2671.917140419655</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>2611.451764789528</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L21" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>4227.758635317988</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>3530.517670152511</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>3322.757371387557</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3476.638285153026</v>
+        <v>3128.953653725099</v>
       </c>
       <c r="C22" t="n">
-        <v>3307.702102225119</v>
+        <v>3084.972127388693</v>
       </c>
       <c r="D22" t="n">
-        <v>3307.702102225119</v>
+        <v>3084.972127388693</v>
       </c>
       <c r="E22" t="n">
-        <v>3307.702102225119</v>
+        <v>3084.972127388693</v>
       </c>
       <c r="F22" t="n">
-        <v>3160.812154727209</v>
+        <v>3084.972127388693</v>
       </c>
       <c r="G22" t="n">
-        <v>3160.812154727209</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="H22" t="n">
-        <v>3014.594967945066</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="I22" t="n">
         <v>2917.269290763412</v>
@@ -5932,28 +5934,28 @@
         <v>4778.051722419721</v>
       </c>
       <c r="R22" t="n">
-        <v>4688.221265177249</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S22" t="n">
-        <v>4688.221265177249</v>
+        <v>4586.365838246547</v>
       </c>
       <c r="T22" t="n">
-        <v>4651.17053826766</v>
+        <v>4364.599222816073</v>
       </c>
       <c r="U22" t="n">
-        <v>4651.17053826766</v>
+        <v>4075.496355941717</v>
       </c>
       <c r="V22" t="n">
-        <v>4396.486050061773</v>
+        <v>3820.81186773583</v>
       </c>
       <c r="W22" t="n">
-        <v>4107.068880024813</v>
+        <v>3531.394697698869</v>
       </c>
       <c r="X22" t="n">
-        <v>3879.079329126796</v>
+        <v>3531.394697698869</v>
       </c>
       <c r="Y22" t="n">
-        <v>3658.286749983266</v>
+        <v>3310.602118555339</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5972,40 +5974,40 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1803.682313196074</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M23" t="n">
-        <v>2439.038619608515</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N23" t="n">
-        <v>2985.817436667297</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O23" t="n">
-        <v>3865.782086996752</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4260.55645335393</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
         <v>4719.034655862918</v>
@@ -6023,16 +6025,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
         <v>189.2383039390118</v>
@@ -6099,7 +6101,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6108,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3942.370854773036</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C25" t="n">
-        <v>3773.434671845129</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D25" t="n">
-        <v>3623.318032432793</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E25" t="n">
-        <v>3475.4049388504</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F25" t="n">
-        <v>3328.51499135249</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G25" t="n">
-        <v>3160.812154727209</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H25" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>4496.535381004075</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>4496.535381004075</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>4496.535381004075</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V25" t="n">
-        <v>4241.850892798188</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W25" t="n">
-        <v>4241.850892798188</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X25" t="n">
-        <v>4013.861341900171</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
-        <v>4013.861341900171</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690174</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749762</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143012</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544768</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551604</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001573</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6224,25 +6226,25 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1390.197710791128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2216.257005193956</v>
+        <v>2497.450077968865</v>
       </c>
       <c r="N26" t="n">
-        <v>3196.009277420603</v>
+        <v>3044.228895027647</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3547.201365906984</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107236</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q26" t="n">
         <v>4719.034655862918</v>
@@ -6251,25 +6253,25 @@
         <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331035</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604872</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261301</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991187</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730107</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>2611.451764789527</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>2978.149925102192</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>596.3482642844385</v>
+        <v>822.6299143867971</v>
       </c>
       <c r="C28" t="n">
-        <v>427.4120813565316</v>
+        <v>653.6937314588902</v>
       </c>
       <c r="D28" t="n">
-        <v>427.4120813565316</v>
+        <v>503.5770920465544</v>
       </c>
       <c r="E28" t="n">
-        <v>279.4989877741385</v>
+        <v>503.5770920465544</v>
       </c>
       <c r="F28" t="n">
-        <v>241.7782212305366</v>
+        <v>356.687144548644</v>
       </c>
       <c r="G28" t="n">
-        <v>241.7782212305366</v>
+        <v>188.984307923363</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839441</v>
+        <v>188.984307923363</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839441</v>
@@ -6406,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V28" t="n">
-        <v>1288.206478295169</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="W28" t="n">
-        <v>998.7893082582084</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="X28" t="n">
-        <v>998.7893082582084</v>
+        <v>1225.070958360567</v>
       </c>
       <c r="Y28" t="n">
-        <v>777.9967291146783</v>
+        <v>1004.278379217037</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690174</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749762</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143012</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544768</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551604</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001573</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6461,52 +6463,52 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1650.184003770974</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2528.189928969821</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>3507.942201196468</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O29" t="n">
-        <v>4010.914672075804</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4405.689038432983</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R29" t="n">
         <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331035</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604872</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261301</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991187</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730107</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C30" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D30" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F30" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>2611.451764789527</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L30" t="n">
-        <v>2978.149925102192</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M30" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3730.981410493357</v>
+        <v>873.220281864028</v>
       </c>
       <c r="C31" t="n">
-        <v>3730.981410493357</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="D31" t="n">
-        <v>3623.318032432792</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E31" t="n">
-        <v>3475.404938850399</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F31" t="n">
-        <v>3328.514991352489</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G31" t="n">
-        <v>3160.812154727208</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H31" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>4688.221265177248</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>4496.535381004074</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>4274.7687655736</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>3985.665898699243</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V31" t="n">
-        <v>3730.981410493357</v>
+        <v>1101.209832762045</v>
       </c>
       <c r="W31" t="n">
-        <v>3730.981410493357</v>
+        <v>1101.209832762045</v>
       </c>
       <c r="X31" t="n">
-        <v>3730.981410493357</v>
+        <v>873.220281864028</v>
       </c>
       <c r="Y31" t="n">
-        <v>3730.981410493357</v>
+        <v>873.220281864028</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>836.0059675195635</v>
+        <v>750.1800661608906</v>
       </c>
       <c r="L32" t="n">
-        <v>1287.040180767972</v>
+        <v>1614.698881814245</v>
       </c>
       <c r="M32" t="n">
-        <v>2265.590483597801</v>
+        <v>2593.249184644074</v>
       </c>
       <c r="N32" t="n">
-        <v>2812.369300656583</v>
+        <v>3573.001456870721</v>
       </c>
       <c r="O32" t="n">
-        <v>3692.333950986038</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3154.542034367489</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C33" t="n">
-        <v>2980.089005086362</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D33" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>2671.917140419655</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F33" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H33" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>2978.149925102193</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>4227.758635317988</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>3530.517670152511</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>3322.757371387557</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>802.8431224204016</v>
+        <v>804.8364680322012</v>
       </c>
       <c r="C34" t="n">
-        <v>633.9069394924948</v>
+        <v>804.8364680322012</v>
       </c>
       <c r="D34" t="n">
-        <v>633.9069394924948</v>
+        <v>654.7198286198654</v>
       </c>
       <c r="E34" t="n">
-        <v>485.9938459101016</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F34" t="n">
-        <v>339.1038984121913</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G34" t="n">
         <v>339.1038984121913</v>
       </c>
       <c r="H34" t="n">
-        <v>192.8867116300491</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6880,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501056</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U34" t="n">
-        <v>1253.788099626699</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V34" t="n">
-        <v>1251.625252461949</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="W34" t="n">
-        <v>1251.625252461949</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="X34" t="n">
-        <v>1023.635701563932</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="Y34" t="n">
-        <v>802.8431224204016</v>
+        <v>986.4849328624409</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E35" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001579</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6935,19 +6937,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>387.79385975162</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>721.6132334414665</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1172.647446689875</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M35" t="n">
-        <v>2151.197749519704</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N35" t="n">
-        <v>3130.950021746351</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O35" t="n">
         <v>4010.914672075805</v>
@@ -6962,25 +6964,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3154.542034367489</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C36" t="n">
-        <v>2980.089005086362</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D36" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>2671.917140419655</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F36" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320241</v>
       </c>
       <c r="M36" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>4227.758635317988</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>3530.517670152511</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>3322.757371387557</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3698.155230093471</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C37" t="n">
-        <v>3529.219047165564</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>3379.102407753228</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>3231.189314170835</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>3231.189314170835</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>3063.486477545554</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M37" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N37" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.79607059811</v>
       </c>
       <c r="O37" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.125669518524</v>
       </c>
       <c r="P37" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952183</v>
       </c>
       <c r="Q37" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104698</v>
       </c>
       <c r="R37" t="n">
-        <v>4725.457397046335</v>
+        <v>1956.343466104698</v>
       </c>
       <c r="S37" t="n">
-        <v>4725.457397046335</v>
+        <v>1764.657581931524</v>
       </c>
       <c r="T37" t="n">
-        <v>4725.457397046335</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U37" t="n">
-        <v>4436.354530171979</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V37" t="n">
-        <v>4436.354530171979</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W37" t="n">
-        <v>4146.937360135018</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X37" t="n">
-        <v>3918.947809237001</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y37" t="n">
-        <v>3698.155230093471</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="38">
@@ -7175,25 +7177,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>625.8141267662577</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1076.848340014667</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M38" t="n">
-        <v>2055.398642844495</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N38" t="n">
-        <v>2602.177459903277</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7227,43 +7229,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G39" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O39" t="n">
         <v>2125.96131142685</v>
@@ -7272,7 +7274,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7281,16 +7283,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X39" t="n">
         <v>1346.568408282342</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>657.5961351655762</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C40" t="n">
-        <v>657.5961351655762</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D40" t="n">
-        <v>507.4794957532405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E40" t="n">
-        <v>507.4794957532405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7354,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1903.279123599484</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1711.59323942631</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T40" t="n">
-        <v>1711.59323942631</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U40" t="n">
-        <v>1422.490372551954</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V40" t="n">
-        <v>1167.805884346067</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W40" t="n">
-        <v>878.3887143091064</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X40" t="n">
-        <v>878.3887143091064</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y40" t="n">
-        <v>657.5961351655762</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="41">
@@ -7385,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
         <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K41" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1390.197710791128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2064.476622801001</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>3044.228895027647</v>
+        <v>2667.236715577529</v>
       </c>
       <c r="O41" t="n">
         <v>3547.201365906984</v>
@@ -7433,28 +7435,28 @@
         <v>4719.034655862918</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604876</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991191</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730111</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="42">
@@ -7464,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7530,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7543,43 +7545,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>637.1336314069201</v>
+        <v>270.9417306852388</v>
       </c>
       <c r="C43" t="n">
-        <v>637.1336314069201</v>
+        <v>270.9417306852388</v>
       </c>
       <c r="D43" t="n">
-        <v>487.0169919945844</v>
+        <v>270.9417306852388</v>
       </c>
       <c r="E43" t="n">
-        <v>339.1038984121913</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F43" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L43" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M43" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N43" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O43" t="n">
         <v>1646.12566951853</v>
@@ -7591,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T43" t="n">
-        <v>1453.060509258584</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U43" t="n">
-        <v>1163.957642384228</v>
+        <v>1445.473983799874</v>
       </c>
       <c r="V43" t="n">
-        <v>909.2731541783409</v>
+        <v>1190.789495593987</v>
       </c>
       <c r="W43" t="n">
-        <v>909.2731541783409</v>
+        <v>901.372325557026</v>
       </c>
       <c r="X43" t="n">
-        <v>909.2731541783409</v>
+        <v>673.3827746590086</v>
       </c>
       <c r="Y43" t="n">
-        <v>818.7820962371599</v>
+        <v>452.5901955154785</v>
       </c>
     </row>
     <row r="44">
@@ -7625,67 +7627,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551622</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K44" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972665</v>
       </c>
       <c r="L44" t="n">
-        <v>1650.184003770974</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M44" t="n">
-        <v>2628.734306600803</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N44" t="n">
-        <v>3175.513123659585</v>
+        <v>3441.080929807097</v>
       </c>
       <c r="O44" t="n">
-        <v>3678.485594538922</v>
+        <v>4075.973927750057</v>
       </c>
       <c r="P44" t="n">
-        <v>4391.840681985868</v>
+        <v>4470.748294107235</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862917</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
         <v>3150.95552873011</v>
@@ -7701,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C45" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
@@ -7725,10 +7727,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390112</v>
       </c>
       <c r="K45" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L45" t="n">
         <v>794.200663232024</v>
@@ -7737,22 +7739,22 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>784.0235789048305</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C46" t="n">
-        <v>784.0235789048305</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D46" t="n">
-        <v>633.9069394924948</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E46" t="n">
-        <v>485.9938459101016</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F46" t="n">
-        <v>339.1038984121913</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G46" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839442</v>
@@ -7807,16 +7809,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L46" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M46" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N46" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O46" t="n">
         <v>1646.12566951853</v>
@@ -7831,25 +7833,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931531</v>
       </c>
       <c r="T46" t="n">
-        <v>1764.65758193153</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>1475.554715057174</v>
+        <v>1253.7880996267</v>
       </c>
       <c r="V46" t="n">
-        <v>1220.870226851287</v>
+        <v>999.1036114208131</v>
       </c>
       <c r="W46" t="n">
-        <v>1220.870226851287</v>
+        <v>709.6864413838525</v>
       </c>
       <c r="X46" t="n">
-        <v>992.8806759532695</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y46" t="n">
-        <v>784.0235789048305</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,10 +8066,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>422.286579409329</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8310,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>275.0442842992664</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,28 +8692,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>161.8544041422902</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>67.53663776704306</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>410.4190035206666</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9161,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>142.1686942807564</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>67.53663776704252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9413,7 +9415,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9422,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9638,16 +9640,16 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M23" t="n">
-        <v>102.8529310510263</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9656,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9881,19 +9883,19 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>295.4822118493973</v>
+        <v>410.4190035206659</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10118,13 +10120,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>347.9535560878002</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10133,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10349,28 +10351,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>219.9458872952496</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>104.3976710547476</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10598,7 +10600,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>67.53663776704263</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10823,28 +10825,28 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>7.630896635344811</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11066,13 +11068,13 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>142.1686942807556</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>29.61882225791999</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11306,19 +11308,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>133.2530576400226</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>13.98823883546996</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23416,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23464,25 +23466,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>190.1007086524901</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>211.9999271999638</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,16 +23661,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,25 +23703,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>129.1581011749737</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>70.66393430725716</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23902,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23944,13 +23946,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>6.377294578904014</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.3211098256413</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>123.7051100255857</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>182.8687296356763</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>109.0563979260731</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>108.0774891447654</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>3.863379669619192</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,13 +24660,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,10 +24840,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>42.02872873825365</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>190.0173117978675</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25072,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>249.996424630725</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>75.47536497318487</v>
       </c>
     </row>
     <row r="35">
@@ -25309,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>36.86377055039539</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>16.14213605697194</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>36.39845358987987</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25789,22 +25791,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>118.2281213950245</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25846,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>128.9985059903256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>182.167944315994</v>
       </c>
       <c r="Y46" t="n">
-        <v>11.81612727414023</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>795136.178497029</v>
+        <v>795136.1784970291</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>795136.1784970291</v>
+        <v>795136.1784970289</v>
       </c>
     </row>
     <row r="14">
@@ -26317,43 +26319,43 @@
         <v>636307.3716448196</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="E2" t="n">
-        <v>615476.7696748241</v>
+        <v>615476.7696748236</v>
       </c>
       <c r="F2" t="n">
+        <v>615476.7696748236</v>
+      </c>
+      <c r="G2" t="n">
         <v>615476.7696748242</v>
       </c>
-      <c r="G2" t="n">
-        <v>615476.7696748239</v>
-      </c>
       <c r="H2" t="n">
-        <v>615476.7696748242</v>
+        <v>615476.7696748236</v>
       </c>
       <c r="I2" t="n">
         <v>615476.7696748242</v>
       </c>
       <c r="J2" t="n">
-        <v>615476.7696748243</v>
+        <v>615476.7696748234</v>
       </c>
       <c r="K2" t="n">
-        <v>615476.7696748241</v>
+        <v>615476.7696748236</v>
       </c>
       <c r="L2" t="n">
-        <v>615476.7696748242</v>
+        <v>615476.7696748237</v>
       </c>
       <c r="M2" t="n">
-        <v>615476.7696748241</v>
+        <v>615476.7696748239</v>
       </c>
       <c r="N2" t="n">
-        <v>615476.769674824</v>
+        <v>615476.7696748237</v>
       </c>
       <c r="O2" t="n">
-        <v>615476.7696748239</v>
+        <v>615476.7696748237</v>
       </c>
       <c r="P2" t="n">
-        <v>615476.7696748237</v>
+        <v>615476.7696748234</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26430,7 +26432,7 @@
         <v>21619.60799709188</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709184</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="H4" t="n">
         <v>21619.60799709187</v>
@@ -26442,22 +26444,22 @@
         <v>21619.60799709187</v>
       </c>
       <c r="K4" t="n">
-        <v>21619.60799709185</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="L4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="M4" t="n">
-        <v>21619.60799709183</v>
+        <v>21619.60799709177</v>
       </c>
       <c r="N4" t="n">
         <v>21619.60799709188</v>
       </c>
       <c r="O4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709178</v>
       </c>
       <c r="P4" t="n">
-        <v>21619.60799709179</v>
+        <v>21619.60799709184</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26472,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340947</v>
@@ -26488,7 +26490,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371364</v>
@@ -26497,16 +26499,16 @@
         <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="M5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="N5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="O5" t="n">
         <v>96383.51825371366</v>
-      </c>
-      <c r="M5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="N5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="O5" t="n">
-        <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
         <v>96383.51825371366</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-228726.1820255642</v>
+        <v>-228726.1820255641</v>
       </c>
       <c r="C6" t="n">
+        <v>361241.6971889804</v>
+      </c>
+      <c r="D6" t="n">
         <v>361241.6971889805</v>
       </c>
-      <c r="D6" t="n">
-        <v>361241.6971889808</v>
-      </c>
       <c r="E6" t="n">
-        <v>-229903.7705693881</v>
+        <v>-229903.7705693885</v>
       </c>
       <c r="F6" t="n">
+        <v>497473.6434240181</v>
+      </c>
+      <c r="G6" t="n">
         <v>497473.6434240187</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
+        <v>497473.6434240181</v>
+      </c>
+      <c r="I6" t="n">
+        <v>497473.6434240188</v>
+      </c>
+      <c r="J6" t="n">
+        <v>321050.4242314249</v>
+      </c>
+      <c r="K6" t="n">
+        <v>497473.6434240182</v>
+      </c>
+      <c r="L6" t="n">
         <v>497473.6434240183</v>
       </c>
-      <c r="H6" t="n">
-        <v>497473.6434240187</v>
-      </c>
-      <c r="I6" t="n">
-        <v>497473.6434240187</v>
-      </c>
-      <c r="J6" t="n">
-        <v>321050.424231426</v>
-      </c>
-      <c r="K6" t="n">
-        <v>497473.6434240186</v>
-      </c>
-      <c r="L6" t="n">
-        <v>497473.6434240187</v>
-      </c>
       <c r="M6" t="n">
-        <v>367831.3285850739</v>
+        <v>367831.3285850737</v>
       </c>
       <c r="N6" t="n">
-        <v>497473.6434240185</v>
+        <v>497473.6434240183</v>
       </c>
       <c r="O6" t="n">
-        <v>497473.6434240184</v>
+        <v>497473.6434240182</v>
       </c>
       <c r="P6" t="n">
-        <v>497473.6434240183</v>
+        <v>497473.6434240179</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26774,10 +26776,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
     </row>
     <row r="4">
@@ -26790,7 +26792,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545557</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26996,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>231.0906000653611</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>321.0995824603837</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27424,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27537,16 +27539,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27581,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>242.4157000743968</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>198.2548428905493</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>36.199909588194</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>337.1384296642381</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>119.0531990043594</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,19 +27830,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>197.4824421267164</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>243.5798373625756</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>262.5442260993519</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>61.44974183043038</v>
       </c>
       <c r="G10" t="n">
-        <v>159.7949465275061</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,10 +28067,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -29983,10 +29985,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -29998,7 +30000,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30037,22 +30039,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
     </row>
     <row r="36">
@@ -30177,7 +30179,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>-5.809605180071106e-12</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30457,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>-9.641133868265976e-13</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
     </row>
     <row r="42">
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32075,7 +32077,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
@@ -32549,7 +32551,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -33041,7 +33043,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987487</v>
@@ -33260,7 +33262,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H41" t="n">
         <v>44.86703772844668</v>
@@ -34129,40 +34131,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T41" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34281,43 +34283,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L43" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780295</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34366,40 +34368,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026433</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34518,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,16 +34786,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856228</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,28 +35412,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>669.9074050305093</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>318.3309425707625</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35644,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>324.040058608738</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>866.0091179129988</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
         <v>59.61319854222478</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
@@ -35881,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>332.9556952494689</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
         <v>59.61319854222478</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>258.3236387357551</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
         <v>337.1912865554005</v>
@@ -36133,7 +36135,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
@@ -36142,7 +36144,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36358,16 +36360,16 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M23" t="n">
-        <v>641.7740468812531</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
         <v>888.8531821509645</v>
@@ -36376,7 +36378,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222478</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
         <v>661.3366991265652</v>
@@ -36601,19 +36603,19 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>834.4033276796241</v>
+        <v>949.3401193508927</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222478</v>
@@ -36689,7 +36691,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127272</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554005</v>
@@ -36838,13 +36840,13 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>886.8746719180269</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -36853,7 +36855,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597718</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -37069,28 +37071,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>557.1371738506501</v>
+        <v>470.4443441954251</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37303,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>295.1846720234602</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
         <v>988.4346493230593</v>
@@ -37318,7 +37320,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>575.5896386552618</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193719</v>
@@ -37473,7 +37475,7 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N37" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675343</v>
       </c>
       <c r="O37" t="n">
         <v>302.3531302226398</v>
@@ -37543,28 +37545,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>344.8221831907453</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M41" t="n">
-        <v>681.0898101109824</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>581.9206576708315</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509647</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K43" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O43" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>988.4346493230594</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282419</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q44" t="n">
-        <v>264.7825436391894</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597659</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K46" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O46" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2627897.546896393</v>
+        <v>2622175.934928507</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836235</v>
+        <v>6654055.582836241</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095098</v>
+        <v>806345.8827095093</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>298.6217232731162</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>2.823190303973502</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>34.08346683966615</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>20.3298104615455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,22 +898,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>162.9033893520716</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>49.0995089918155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>54.65520119711156</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>43.31785343913981</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>163.2962083791359</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>183.9474437627386</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>83.97130619250086</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>155.2114886365812</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>53.49419661221123</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>40.13771612386414</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292658</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>84.69473660442844</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>60.61092415646818</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2013,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>129.9565085941267</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2064,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>14.20188851094976</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>43.54171107304214</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744762</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2532,7 +2532,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>270.0697021486465</v>
+        <v>15.11174121957181</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2654,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>92.4890407402189</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192029</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>101.1471539705512</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>62.1203315259605</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3192,22 +3192,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>203.4068132192029</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>143.1092883789099</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3277,13 +3277,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534535</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873199</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -3319,16 +3319,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>203.4068132191973</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>59.85112688558653</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3751,16 +3751,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417124</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534535</v>
+        <v>410.9217256534532</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292599</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
@@ -3799,13 +3799,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3839,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T42" t="n">
         <v>190.7165703189231</v>
@@ -3900,22 +3900,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>28.20584125154466</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>59.90320919298899</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492406</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>43.54171107304315</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>885.7444020895362</v>
+        <v>898.8784838925781</v>
       </c>
       <c r="C2" t="n">
-        <v>885.7444020895362</v>
+        <v>529.9159669521664</v>
       </c>
       <c r="D2" t="n">
-        <v>885.7444020895362</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E2" t="n">
-        <v>885.7444020895362</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F2" t="n">
-        <v>474.7584972999286</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>56.79468919811546</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4372,10 +4372,10 @@
         <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.48357412947</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y2" t="n">
-        <v>1272.344242153658</v>
+        <v>898.8784838925781</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>471.4038777286579</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V4" t="n">
-        <v>471.4038777286579</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W4" t="n">
-        <v>471.4038777286579</v>
+        <v>404.5276295785111</v>
       </c>
       <c r="X4" t="n">
-        <v>243.4143268306406</v>
+        <v>404.5276295785111</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.8791647482714</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1732.515907621104</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.553390680693</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4567,16 +4567,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733119</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224069</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
         <v>1836.345445977174</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2532.600212884817</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2313.96554585688</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2060.203760494971</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>1729.1408731514</v>
       </c>
       <c r="W5" t="n">
-        <v>1782.111371249201</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="X5" t="n">
-        <v>1782.111371249201</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="Y5" t="n">
-        <v>1732.515907621104</v>
+        <v>1376.372217881286</v>
       </c>
     </row>
     <row r="6">
@@ -4649,22 +4649,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4761,16 +4761,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>672.9217102699579</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>383.5045402329973</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X7" t="n">
-        <v>383.5045402329973</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y7" t="n">
-        <v>383.5045402329973</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1117.513150920515</v>
+        <v>614.0661152341315</v>
       </c>
       <c r="C8" t="n">
-        <v>1117.513150920515</v>
+        <v>614.0661152341315</v>
       </c>
       <c r="D8" t="n">
-        <v>1117.513150920515</v>
+        <v>614.0661152341315</v>
       </c>
       <c r="E8" t="n">
-        <v>1117.513150920515</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4804,13 +4804,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4819,7 +4819,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
@@ -4834,22 +4834,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500978</v>
+        <v>2061.502748084708</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.118241157407</v>
+        <v>1730.439860741137</v>
       </c>
       <c r="W8" t="n">
-        <v>1881.118241157407</v>
+        <v>1377.671205471023</v>
       </c>
       <c r="X8" t="n">
-        <v>1507.652482896327</v>
+        <v>1004.205447209943</v>
       </c>
       <c r="Y8" t="n">
-        <v>1117.513150920515</v>
+        <v>614.0661152341315</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4886,22 +4886,22 @@
         <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>713.806220357135</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>444.0275768541694</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>275.0913939262625</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>275.0913939262625</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>275.0913939262625</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036446</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V10" t="n">
-        <v>444.0275768541694</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W10" t="n">
-        <v>444.0275768541694</v>
+        <v>438.7118141694739</v>
       </c>
       <c r="X10" t="n">
-        <v>444.0275768541694</v>
+        <v>210.7222632714566</v>
       </c>
       <c r="Y10" t="n">
-        <v>444.0275768541694</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
@@ -5041,25 +5041,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807096</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O11" t="n">
-        <v>3944.053400686433</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4338.827767043611</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
         <v>4653.975400188666</v>
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H12" t="n">
         <v>114.5683260468568</v>
@@ -5120,19 +5120,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
@@ -5141,7 +5141,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5150,22 +5150,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>973.7726509601081</v>
+        <v>656.6259356382594</v>
       </c>
       <c r="C13" t="n">
-        <v>804.8364680322012</v>
+        <v>487.6897527103525</v>
       </c>
       <c r="D13" t="n">
-        <v>654.7198286198654</v>
+        <v>487.6897527103525</v>
       </c>
       <c r="E13" t="n">
-        <v>506.8067350374723</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H13" t="n">
         <v>192.8867116300491</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1644.746393431758</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U13" t="n">
-        <v>1644.746393431758</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V13" t="n">
-        <v>1604.203245831895</v>
+        <v>1220.870226851287</v>
       </c>
       <c r="W13" t="n">
-        <v>1604.203245831895</v>
+        <v>931.4530568143261</v>
       </c>
       <c r="X13" t="n">
-        <v>1376.213694933878</v>
+        <v>931.4530568143261</v>
       </c>
       <c r="Y13" t="n">
-        <v>1155.421115790348</v>
+        <v>710.660477670796</v>
       </c>
     </row>
     <row r="14">
@@ -5260,46 +5260,46 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089263</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>416.3606924710451</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>750.1800661608916</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1614.698881814246</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2593.249184644075</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
-        <v>3573.001456870722</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5360,10 +5360,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>824.3287722635405</v>
+        <v>181.1112734427666</v>
       </c>
       <c r="C16" t="n">
-        <v>655.3925893356336</v>
+        <v>181.1112734427666</v>
       </c>
       <c r="D16" t="n">
-        <v>655.3925893356336</v>
+        <v>181.1112734427666</v>
       </c>
       <c r="E16" t="n">
-        <v>507.4794957532405</v>
+        <v>181.1112734427666</v>
       </c>
       <c r="F16" t="n">
-        <v>360.5895482553301</v>
+        <v>181.1112734427666</v>
       </c>
       <c r="G16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5463,25 +5463,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1805.289853148628</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T16" t="n">
-        <v>1805.289853148628</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U16" t="n">
-        <v>1516.186986274271</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V16" t="n">
-        <v>1516.186986274271</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W16" t="n">
-        <v>1226.76981623731</v>
+        <v>811.5418683145538</v>
       </c>
       <c r="X16" t="n">
-        <v>1226.76981623731</v>
+        <v>583.5523174165364</v>
       </c>
       <c r="Y16" t="n">
-        <v>1005.97723709378</v>
+        <v>362.7597382730063</v>
       </c>
     </row>
     <row r="17">
@@ -5494,49 +5494,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176197</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.32865758045</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807096</v>
+        <v>3163.468180669546</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3666.440651548883</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5545,16 +5545,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
@@ -5597,13 +5597,13 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320246</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N18" t="n">
         <v>1715.000032008795</v>
@@ -5615,7 +5615,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5627,7 +5627,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>264.4972173763014</v>
+        <v>709.6864413838525</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839442</v>
+        <v>540.7502584559456</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839442</v>
+        <v>540.7502584559456</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839442</v>
+        <v>540.7502584559456</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5676,16 +5676,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O19" t="n">
         <v>1646.12566951853</v>
@@ -5697,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.657581931531</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.7880996267</v>
       </c>
       <c r="V19" t="n">
-        <v>909.2731541783409</v>
+        <v>999.1036114208131</v>
       </c>
       <c r="W19" t="n">
-        <v>894.9278122480886</v>
+        <v>709.6864413838525</v>
       </c>
       <c r="X19" t="n">
-        <v>666.9382613500712</v>
+        <v>709.6864413838525</v>
       </c>
       <c r="Y19" t="n">
-        <v>446.1456822065411</v>
+        <v>709.6864413838525</v>
       </c>
     </row>
     <row r="20">
@@ -5731,19 +5731,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5752,19 +5752,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>618.2595390972665</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364127</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420602</v>
       </c>
       <c r="O20" t="n">
         <v>4075.973927750058</v>
@@ -5776,22 +5776,22 @@
         <v>4719.034655862918</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5807,43 +5807,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K21" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
         <v>2125.96131142685</v>
@@ -5852,7 +5852,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5861,7 +5861,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U21" t="n">
         <v>2043.809373447819</v>
@@ -5870,7 +5870,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X21" t="n">
         <v>1346.568408282342</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3128.953653725099</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>3084.972127388693</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>3084.972127388693</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>3084.972127388693</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>3084.972127388693</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L22" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M22" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N22" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O22" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>4586.365838246547</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T22" t="n">
-        <v>4364.599222816073</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U22" t="n">
-        <v>4075.496355941717</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>3820.81186773583</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>3531.394697698869</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>3531.394697698869</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>3310.602118555339</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5974,43 +5974,43 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
         <v>435.1415336001584</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1237.706702364128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2216.257005193956</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>3196.009277420603</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6025,16 +6025,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6065,19 +6065,19 @@
         <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320246</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N24" t="n">
         <v>1715.000032008795</v>
@@ -6123,43 +6123,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O25" t="n">
         <v>1646.12566951853</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="U25" t="n">
-        <v>1270.093287563029</v>
+        <v>1437.79612418831</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.408799357142</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="W25" t="n">
-        <v>725.9916293201816</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X25" t="n">
-        <v>498.0020784221642</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.2094992786341</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
         <v>850.213983755162</v>
@@ -6223,55 +6223,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2497.450077968865</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>3044.228895027647</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
-        <v>3547.201365906984</v>
+        <v>3944.053400686433</v>
       </c>
       <c r="P26" t="n">
-        <v>4260.55645335393</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
@@ -6338,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>822.6299143867971</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>653.6937314588902</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>503.5770920465544</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>503.5770920465544</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>356.687144548644</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>188.984307923363</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>188.984307923363</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U28" t="n">
-        <v>1453.060509258584</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V28" t="n">
-        <v>1453.060509258584</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W28" t="n">
-        <v>1453.060509258584</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>1225.070958360567</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>1004.278379217037</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690174</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749762</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143012</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544768</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551604</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001573</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807096</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331035</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604872</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261301</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991187</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730107</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6518,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D30" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F30" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K30" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320246</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6575,7 +6575,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>873.220281864028</v>
+        <v>781.811212990069</v>
       </c>
       <c r="C31" t="n">
-        <v>704.2840989361212</v>
+        <v>612.8750300621621</v>
       </c>
       <c r="D31" t="n">
-        <v>704.2840989361212</v>
+        <v>462.7583906498263</v>
       </c>
       <c r="E31" t="n">
-        <v>556.371005353728</v>
+        <v>462.7583906498263</v>
       </c>
       <c r="F31" t="n">
-        <v>409.4810578558177</v>
+        <v>462.7583906498263</v>
       </c>
       <c r="G31" t="n">
-        <v>241.7782212305366</v>
+        <v>295.0555540245452</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.060509258584</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U31" t="n">
-        <v>1163.957642384228</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V31" t="n">
-        <v>1101.209832762045</v>
+        <v>1701.658977898817</v>
       </c>
       <c r="W31" t="n">
-        <v>1101.209832762045</v>
+        <v>1412.241807861856</v>
       </c>
       <c r="X31" t="n">
-        <v>873.220281864028</v>
+        <v>1184.252256963839</v>
       </c>
       <c r="Y31" t="n">
-        <v>873.220281864028</v>
+        <v>963.4596778203087</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>750.1800661608906</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1614.698881814245</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M32" t="n">
-        <v>2593.249184644074</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N32" t="n">
-        <v>3573.001456870721</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R32" t="n">
         <v>4778.05172241972</v>
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D33" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F33" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6812,7 +6812,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>804.8364680322012</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C34" t="n">
-        <v>804.8364680322012</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D34" t="n">
-        <v>654.7198286198654</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E34" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F34" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G34" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839441</v>
@@ -6882,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1674.827124689058</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U34" t="n">
-        <v>1385.724257814702</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V34" t="n">
-        <v>1131.039769608815</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W34" t="n">
-        <v>1131.039769608815</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>1131.039769608815</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>986.4849328624409</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6925,49 +6925,49 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001579</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>4010.914672075805</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P35" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
         <v>4208.252829604874</v>
@@ -6992,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D36" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F36" t="n">
         <v>341.4333205763708</v>
@@ -7010,19 +7010,19 @@
         <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320241</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7049,7 +7049,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.56103444839442</v>
+        <v>654.7198286198654</v>
       </c>
       <c r="C37" t="n">
-        <v>95.56103444839442</v>
+        <v>654.7198286198654</v>
       </c>
       <c r="D37" t="n">
-        <v>95.56103444839442</v>
+        <v>654.7198286198654</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7107,40 +7107,40 @@
         <v>1005.387693892251</v>
       </c>
       <c r="N37" t="n">
-        <v>1346.79607059811</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.125669518524</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
-        <v>1878.733169952183</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104698</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104698</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S37" t="n">
-        <v>1764.657581931524</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T37" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U37" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V37" t="n">
-        <v>1015.408799357142</v>
+        <v>1103.501958661413</v>
       </c>
       <c r="W37" t="n">
-        <v>725.9916293201816</v>
+        <v>1103.501958661413</v>
       </c>
       <c r="X37" t="n">
-        <v>498.0020784221642</v>
+        <v>875.5124077633956</v>
       </c>
       <c r="Y37" t="n">
-        <v>277.2094992786341</v>
+        <v>654.7198286198654</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>416.1091927888612</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>1070.832524924161</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.32865758045</v>
+        <v>2055.398642844494</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807096</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7229,43 +7229,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
         <v>2125.96131142685</v>
@@ -7274,7 +7274,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7283,22 +7283,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7387,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
-        <v>451.845814427773</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
         <v>1106.569146563073</v>
@@ -7423,40 +7423,40 @@
         <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>2667.236715577529</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>3547.201365906984</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P41" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991191</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730111</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D42" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F42" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7523,7 +7523,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7545,43 +7545,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>270.9417306852388</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="C43" t="n">
-        <v>270.9417306852388</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="D43" t="n">
-        <v>270.9417306852388</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="E43" t="n">
-        <v>242.4509819463048</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839442</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839442</v>
+        <v>156.0693265625247</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M43" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N43" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
         <v>1646.12566951853</v>
@@ -7599,22 +7599,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T43" t="n">
-        <v>1734.57685067423</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U43" t="n">
-        <v>1445.473983799874</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V43" t="n">
-        <v>1190.789495593987</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W43" t="n">
-        <v>901.372325557026</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X43" t="n">
-        <v>673.3827746590086</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y43" t="n">
-        <v>452.5901955154785</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
     <row r="44">
@@ -7639,37 +7639,37 @@
         <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>284.44016540742</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972665</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750621</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M44" t="n">
-        <v>2461.32865758045</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N44" t="n">
-        <v>3441.080929807097</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750057</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107235</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862917</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R44" t="n">
         <v>4778.05172241972</v>
@@ -7724,16 +7724,16 @@
         <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390112</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193585</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7782,43 +7782,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C46" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D46" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E46" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F46" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M46" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N46" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
         <v>1646.12566951853</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>1764.657581931531</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T46" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U46" t="n">
-        <v>1253.7880996267</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V46" t="n">
-        <v>999.1036114208131</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W46" t="n">
-        <v>709.6864413838525</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X46" t="n">
-        <v>665.7049150474453</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y46" t="n">
-        <v>444.9123359039152</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.658803395178</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>67.53663776704306</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>133.2530576400255</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9172,22 +9172,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>135.6385654278958</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277287</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9415,7 +9415,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>170.1140909277297</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476822</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>410.4190035206659</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>133.2530576400256</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>133.2530576400246</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476828</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>67.53663776704263</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>132.9990175570114</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11071,10 +11071,10 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>29.61882225791999</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476828</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>133.2530576400226</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>126.3377835697261</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>211.9999271999638</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>81.33107165459978</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,22 +23703,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>129.1581011749737</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23901,13 +23901,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>15.46453942880456</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.3211098256413</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>123.7051100255857</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>16.14213605696571</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>16.14213605696636</v>
+        <v>271.1000969860411</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>3.863379669619192</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>16.14213605696631</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>43.60786094376957</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>190.0173117978675</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,22 +25080,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>16.14213605696631</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>75.47536497318487</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25320,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>16.14213605697194</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>192.2865164382415</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25788,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>118.2281213950245</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>84.8518057213318</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>105.0742887270132</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>182.167944315994</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>795136.1784970291</v>
+        <v>795136.178497029</v>
       </c>
     </row>
     <row r="6">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>795136.1784970289</v>
+        <v>795136.1784970291</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.37164482</v>
       </c>
       <c r="D2" t="n">
         <v>636307.3716448197</v>
       </c>
       <c r="E2" t="n">
-        <v>615476.7696748236</v>
+        <v>615476.7696748237</v>
       </c>
       <c r="F2" t="n">
-        <v>615476.7696748236</v>
+        <v>615476.7696748233</v>
       </c>
       <c r="G2" t="n">
         <v>615476.7696748242</v>
       </c>
       <c r="H2" t="n">
+        <v>615476.7696748237</v>
+      </c>
+      <c r="I2" t="n">
+        <v>615476.7696748233</v>
+      </c>
+      <c r="J2" t="n">
+        <v>615476.7696748241</v>
+      </c>
+      <c r="K2" t="n">
+        <v>615476.7696748232</v>
+      </c>
+      <c r="L2" t="n">
+        <v>615476.7696748232</v>
+      </c>
+      <c r="M2" t="n">
+        <v>615476.7696748233</v>
+      </c>
+      <c r="N2" t="n">
+        <v>615476.7696748239</v>
+      </c>
+      <c r="O2" t="n">
+        <v>615476.7696748233</v>
+      </c>
+      <c r="P2" t="n">
         <v>615476.7696748236</v>
-      </c>
-      <c r="I2" t="n">
-        <v>615476.7696748242</v>
-      </c>
-      <c r="J2" t="n">
-        <v>615476.7696748234</v>
-      </c>
-      <c r="K2" t="n">
-        <v>615476.7696748236</v>
-      </c>
-      <c r="L2" t="n">
-        <v>615476.7696748237</v>
-      </c>
-      <c r="M2" t="n">
-        <v>615476.7696748239</v>
-      </c>
-      <c r="N2" t="n">
-        <v>615476.7696748237</v>
-      </c>
-      <c r="O2" t="n">
-        <v>615476.7696748237</v>
-      </c>
-      <c r="P2" t="n">
-        <v>615476.7696748234</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925927</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>192206.5963924297</v>
       </c>
       <c r="C4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="D4" t="n">
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="F4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="G4" t="n">
+        <v>21619.60799709182</v>
+      </c>
+      <c r="H4" t="n">
+        <v>21619.60799709185</v>
+      </c>
+      <c r="I4" t="n">
+        <v>21619.60799709185</v>
+      </c>
+      <c r="J4" t="n">
         <v>21619.60799709188</v>
-      </c>
-      <c r="F4" t="n">
-        <v>21619.60799709188</v>
-      </c>
-      <c r="G4" t="n">
-        <v>21619.60799709188</v>
-      </c>
-      <c r="H4" t="n">
-        <v>21619.60799709187</v>
-      </c>
-      <c r="I4" t="n">
-        <v>21619.60799709187</v>
-      </c>
-      <c r="J4" t="n">
-        <v>21619.60799709187</v>
       </c>
       <c r="K4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="L4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="M4" t="n">
-        <v>21619.60799709177</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="N4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="O4" t="n">
-        <v>21619.60799709178</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="P4" t="n">
-        <v>21619.60799709184</v>
+        <v>21619.60799709186</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371366</v>
@@ -26490,13 +26490,13 @@
         <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371364</v>
@@ -26508,10 +26508,10 @@
         <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-228726.1820255641</v>
+        <v>-228726.1820255638</v>
       </c>
       <c r="C6" t="n">
-        <v>361241.6971889804</v>
+        <v>361241.6971889808</v>
       </c>
       <c r="D6" t="n">
         <v>361241.6971889805</v>
       </c>
       <c r="E6" t="n">
-        <v>-229903.7705693885</v>
+        <v>-230575.7254716463</v>
       </c>
       <c r="F6" t="n">
-        <v>497473.6434240181</v>
+        <v>496801.6885217598</v>
       </c>
       <c r="G6" t="n">
-        <v>497473.6434240187</v>
+        <v>496801.6885217605</v>
       </c>
       <c r="H6" t="n">
-        <v>497473.6434240181</v>
+        <v>496801.6885217603</v>
       </c>
       <c r="I6" t="n">
-        <v>497473.6434240188</v>
+        <v>496801.6885217598</v>
       </c>
       <c r="J6" t="n">
-        <v>321050.4242314249</v>
+        <v>320378.4693291678</v>
       </c>
       <c r="K6" t="n">
-        <v>497473.6434240182</v>
+        <v>496801.6885217597</v>
       </c>
       <c r="L6" t="n">
-        <v>497473.6434240183</v>
+        <v>496801.6885217598</v>
       </c>
       <c r="M6" t="n">
-        <v>367831.3285850737</v>
+        <v>367159.3736828151</v>
       </c>
       <c r="N6" t="n">
-        <v>497473.6434240183</v>
+        <v>496801.6885217605</v>
       </c>
       <c r="O6" t="n">
-        <v>497473.6434240182</v>
+        <v>496801.6885217599</v>
       </c>
       <c r="P6" t="n">
-        <v>497473.6434240179</v>
+        <v>496801.6885217602</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26752,13 +26752,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26776,10 +26776,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762115</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>56.06131834756673</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>321.0995824603837</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27590,22 +27590,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>252.4395314969248</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>198.2548428905493</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,22 +27618,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>11.51232345689996</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>337.1384296642381</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27782,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27833,16 +27833,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>197.4824421267164</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>243.2051448974512</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27861,16 +27861,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>243.5798373625756</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,16 +27906,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>67.27672374555073</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28022,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>61.44974183043038</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28070,16 +28070,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>63.37316471551358</v>
       </c>
     </row>
     <row r="11">
@@ -29985,10 +29985,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30000,7 +30000,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30039,22 +30039,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30179,7 +30179,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>-5.809605180071106e-12</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>-9.641133868265976e-13</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -31521,43 +31521,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32077,7 +32077,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
@@ -32098,7 +32098,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32235,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32387,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32472,40 +32472,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J21" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32624,43 +32624,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H23" t="n">
         <v>44.86703772844668</v>
@@ -32709,40 +32709,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T23" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002919</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32861,43 +32861,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L25" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U25" t="n">
         <v>0.1071911508780295</v>
@@ -33043,7 +33043,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987487</v>
@@ -33262,7 +33262,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33502,7 +33502,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138796</v>
@@ -33736,7 +33736,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
         <v>44.86703772844668</v>
@@ -34131,40 +34131,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34283,43 +34283,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780295</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34368,40 +34368,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026433</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34520,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,7 +34789,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>625.2391015115037</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>318.3309425707625</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
         <v>125.3296184152072</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>324.040058608738</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
@@ -35746,7 +35746,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O17" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>534.4005516472678</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>625.704205320061</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>988.4346493230594</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O20" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509647</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>94.62350453597716</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L23" t="n">
-        <v>625.7042053200619</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359016</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859617</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K25" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O25" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>949.3401193508927</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>532.0150438593975</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222478</v>
@@ -36691,7 +36691,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127272</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282437</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597718</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>470.4443441954251</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>800.292698040015</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340054</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>575.5896386552618</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597718</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37475,7 +37475,7 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N37" t="n">
-        <v>344.8569461675343</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
         <v>302.3531302226398</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>323.786018525724</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265653</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>581.9206576708315</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509647</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636243</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222484</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687127</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554006</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427827</v>
+        <v>800.292698040015</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230594</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248957</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>641.3060585282419</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.761986219372</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037196</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222484</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597659</v>
+        <v>94.62350453597718</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2622175.934928507</v>
+        <v>2625581.426052955</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836241</v>
+        <v>6654055.582836236</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095093</v>
+        <v>806345.8827095095</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9363171.853139732</v>
+        <v>9363171.853139734</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>298.6217232731162</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,10 +673,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>298.7744291072159</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -718,7 +718,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>34.08346683966615</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>322.6159522267454</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>162.9033893520716</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>43.31785343913981</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>129.9970282407505</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>183.9474437627386</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>59.72683757586831</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>155.2114886365812</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1375,10 +1375,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.49419661221123</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>163.0232332771102</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710085</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292658</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1767,19 +1767,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>84.69473660442844</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1824,16 +1824,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>72.57251122165252</v>
       </c>
     </row>
     <row r="17">
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>129.9565085941267</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2058,7 +2058,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785995</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>173.6268892744762</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785995</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>15.11174121957181</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417126</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
@@ -2654,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>203.4068132192029</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>173.7172817388085</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2952,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>101.1471539705512</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3240,10 +3240,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>203.4068132192029</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>71.61148690776486</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -3483,16 +3483,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>59.85112688558653</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>84.69473660442753</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>173.6268892744757</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534532</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>71.67037196991714</v>
       </c>
       <c r="H43" t="n">
-        <v>59.90320919298899</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>74.75769145492406</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,10 +4191,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>24.92093637964086</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>898.8784838925781</v>
+        <v>843.3415311720269</v>
       </c>
       <c r="C2" t="n">
-        <v>529.9159669521664</v>
+        <v>843.3415311720269</v>
       </c>
       <c r="D2" t="n">
-        <v>228.2778626358874</v>
+        <v>843.3415311720269</v>
       </c>
       <c r="E2" t="n">
-        <v>228.2778626358874</v>
+        <v>843.3415311720269</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>836.3960304228234</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4366,16 +4366,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>1289.01781586839</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="Y2" t="n">
-        <v>898.8784838925781</v>
+        <v>1229.941371236149</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
         <v>53.94298182036445</v>
@@ -4527,13 +4527,13 @@
         <v>438.9553738610022</v>
       </c>
       <c r="W4" t="n">
-        <v>404.5276295785111</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X4" t="n">
-        <v>404.5276295785111</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y4" t="n">
-        <v>404.5276295785111</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1376.372217881286</v>
+        <v>923.1150787952338</v>
       </c>
       <c r="C5" t="n">
-        <v>1376.372217881286</v>
+        <v>554.1525618548221</v>
       </c>
       <c r="D5" t="n">
-        <v>1018.106519274536</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
         <v>221.3323618866839</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2532.600212884817</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2313.96554585688</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2060.203760494971</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>1729.1408731514</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>1376.372217881286</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>1376.372217881286</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y5" t="n">
-        <v>1376.372217881286</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="6">
@@ -4649,10 +4649,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="W7" t="n">
-        <v>684.3735766921516</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>456.3840257941342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>614.0661152341315</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="C8" t="n">
-        <v>614.0661152341315</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D8" t="n">
-        <v>614.0661152341315</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>228.2778626358873</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2565.83896148211</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834949</v>
+        <v>2565.83896148211</v>
       </c>
       <c r="U8" t="n">
-        <v>2061.502748084708</v>
+        <v>2312.077176120202</v>
       </c>
       <c r="V8" t="n">
-        <v>1730.439860741137</v>
+        <v>1981.014288776631</v>
       </c>
       <c r="W8" t="n">
-        <v>1377.671205471023</v>
+        <v>1628.245633506517</v>
       </c>
       <c r="X8" t="n">
-        <v>1004.205447209943</v>
+        <v>1254.779875245437</v>
       </c>
       <c r="Y8" t="n">
-        <v>614.0661152341315</v>
+        <v>864.6405432696254</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L9" t="n">
-        <v>713.806220357135</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>559.1928012785272</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>409.0761618661915</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>261.1630682837983</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>114.273120785888</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694739</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="X10" t="n">
-        <v>210.7222632714566</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064341</v>
       </c>
     </row>
     <row r="11">
@@ -5041,19 +5041,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K11" t="n">
-        <v>1070.832524924162</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L11" t="n">
-        <v>1521.86673817257</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2055.398642844495</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N11" t="n">
-        <v>2602.177459903277</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O11" t="n">
         <v>3482.142110232732</v>
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161933</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320241</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>656.6259356382594</v>
+        <v>508.7128420558663</v>
       </c>
       <c r="C13" t="n">
-        <v>487.6897527103525</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="D13" t="n">
-        <v>487.6897527103525</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="E13" t="n">
         <v>339.7766591279594</v>
@@ -5202,7 +5202,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5214,37 +5214,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1791.673533501561</v>
       </c>
       <c r="T13" t="n">
-        <v>1764.65758193153</v>
+        <v>1569.906918071088</v>
       </c>
       <c r="U13" t="n">
-        <v>1475.554715057174</v>
+        <v>1280.804051196731</v>
       </c>
       <c r="V13" t="n">
-        <v>1220.870226851287</v>
+        <v>1026.119562990844</v>
       </c>
       <c r="W13" t="n">
-        <v>931.4530568143261</v>
+        <v>736.7023929538836</v>
       </c>
       <c r="X13" t="n">
-        <v>931.4530568143261</v>
+        <v>508.7128420558663</v>
       </c>
       <c r="Y13" t="n">
-        <v>710.660477670796</v>
+        <v>508.7128420558663</v>
       </c>
     </row>
     <row r="14">
@@ -5257,49 +5257,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089263</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1614.698881814247</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483406</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542188</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5348,7 +5348,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
@@ -5357,25 +5357,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>181.1112734427666</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C16" t="n">
-        <v>181.1112734427666</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D16" t="n">
-        <v>181.1112734427666</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E16" t="n">
-        <v>181.1112734427666</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F16" t="n">
-        <v>181.1112734427666</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
         <v>95.56103444839442</v>
@@ -5439,7 +5439,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5451,37 +5451,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S16" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T16" t="n">
-        <v>1644.746393431758</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1355.643526557401</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>1100.959038351514</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="W16" t="n">
-        <v>811.5418683145538</v>
+        <v>964.3709295897384</v>
       </c>
       <c r="X16" t="n">
-        <v>583.5523174165364</v>
+        <v>964.3709295897384</v>
       </c>
       <c r="Y16" t="n">
-        <v>362.7597382730063</v>
+        <v>891.0653626991802</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
@@ -5506,37 +5506,37 @@
         <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.845814427773</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>785.6651881176197</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1650.184003770974</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M17" t="n">
-        <v>2183.715908442899</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N17" t="n">
-        <v>3163.468180669546</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O17" t="n">
-        <v>3666.440651548883</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5545,16 +5545,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
@@ -5597,13 +5597,13 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320246</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
         <v>1715.000032008795</v>
@@ -5612,16 +5612,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>709.6864413838525</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>540.7502584559456</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>540.7502584559456</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>540.7502584559456</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5676,16 +5676,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
         <v>1646.12566951853</v>
@@ -5697,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.657581931531</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1253.7880996267</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V19" t="n">
-        <v>999.1036114208131</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W19" t="n">
-        <v>709.6864413838525</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X19" t="n">
-        <v>709.6864413838525</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>709.6864413838525</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5728,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.44016540742</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972665</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L20" t="n">
-        <v>1237.706702364127</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M20" t="n">
-        <v>2216.257005193956</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N20" t="n">
-        <v>3196.009277420602</v>
+        <v>3195.001976422504</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3697.97444730184</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5785,19 +5785,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5807,43 +5807,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320238</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
         <v>2125.96131142685</v>
@@ -5852,7 +5852,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5861,7 +5861,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
         <v>2043.809373447819</v>
@@ -5870,7 +5870,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
         <v>1346.568408282342</v>
@@ -5913,16 +5913,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
         <v>1646.12566951853</v>
@@ -5934,13 +5934,13 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
         <v>1270.093287563029</v>
@@ -5980,37 +5980,37 @@
         <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.845814427773</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
@@ -6071,13 +6071,13 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320246</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
         <v>1715.000032008795</v>
@@ -6101,7 +6101,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
         <v>95.56103444839442</v>
@@ -6150,16 +6150,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
         <v>1646.12566951853</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689059</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258585</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U25" t="n">
-        <v>1437.79612418831</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V25" t="n">
-        <v>1183.111635982423</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W25" t="n">
-        <v>893.6944659454626</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X25" t="n">
-        <v>665.7049150474453</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
-        <v>444.9123359039152</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1465.885462454824</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>1999.417367126749</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O26" t="n">
-        <v>3944.053400686433</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6281,13 +6281,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
         <v>487.9678785494859</v>
@@ -6296,7 +6296,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468565</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
@@ -6414,22 +6414,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1270.093287563029</v>
+        <v>1367.418964744684</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.408799357142</v>
+        <v>1112.734476538797</v>
       </c>
       <c r="W28" t="n">
-        <v>725.9916293201816</v>
+        <v>823.3173065018362</v>
       </c>
       <c r="X28" t="n">
-        <v>498.0020784221642</v>
+        <v>595.3277556038189</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786341</v>
+        <v>374.5351764602888</v>
       </c>
     </row>
     <row r="29">
@@ -6454,10 +6454,10 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
@@ -6469,13 +6469,13 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1898.858917622688</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
         <v>3482.142110232732</v>
@@ -6518,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320246</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6560,22 +6560,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>781.811212990069</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>612.8750300621621</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>462.7583906498263</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>462.7583906498263</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>462.7583906498263</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>295.0555540245452</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6648,25 +6648,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104704</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T31" t="n">
-        <v>1956.343466104704</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U31" t="n">
-        <v>1956.343466104704</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V31" t="n">
-        <v>1701.658977898817</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W31" t="n">
-        <v>1412.241807861856</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X31" t="n">
-        <v>1184.252256963839</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y31" t="n">
-        <v>963.4596778203087</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="32">
@@ -6679,25 +6679,25 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
         <v>451.8458144277729</v>
@@ -6706,25 +6706,25 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1898.858917622687</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2432.390822294612</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N32" t="n">
-        <v>2979.169639353394</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
         <v>4667.761053946815</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
@@ -6776,37 +6776,37 @@
         <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K33" t="n">
         <v>427.502502919359</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6888,7 +6888,7 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
         <v>1270.093287563029</v>
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L35" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232731</v>
+        <v>3517.878731871642</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679677</v>
+        <v>4231.233819318588</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188665</v>
+        <v>4689.712021827576</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6992,58 +6992,58 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>654.7198286198654</v>
+        <v>464.9024566190091</v>
       </c>
       <c r="C37" t="n">
-        <v>654.7198286198654</v>
+        <v>392.5676213586405</v>
       </c>
       <c r="D37" t="n">
-        <v>654.7198286198654</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E37" t="n">
-        <v>506.8067350374723</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F37" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L37" t="n">
         <v>661.2306482927024</v>
@@ -7110,37 +7110,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P37" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S37" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T37" t="n">
-        <v>1453.060509258584</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U37" t="n">
-        <v>1163.957642384228</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V37" t="n">
-        <v>1103.501958661413</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="W37" t="n">
-        <v>1103.501958661413</v>
+        <v>874.5404723472661</v>
       </c>
       <c r="X37" t="n">
-        <v>875.5124077633956</v>
+        <v>646.5509214492488</v>
       </c>
       <c r="Y37" t="n">
-        <v>654.7198286198654</v>
+        <v>646.5509214492488</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
@@ -7162,7 +7162,7 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G38" t="n">
         <v>435.1415336001585</v>
@@ -7171,55 +7171,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>416.1091927888612</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>1070.832524924161</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L38" t="n">
-        <v>1521.86673817257</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M38" t="n">
-        <v>2055.398642844494</v>
+        <v>2337.214217867998</v>
       </c>
       <c r="N38" t="n">
-        <v>2602.177459903276</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
@@ -7286,7 +7286,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.56103444839441</v>
+        <v>181.1112734427657</v>
       </c>
       <c r="C40" t="n">
-        <v>95.56103444839441</v>
+        <v>181.1112734427657</v>
       </c>
       <c r="D40" t="n">
-        <v>95.56103444839441</v>
+        <v>181.1112734427657</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839441</v>
+        <v>181.1112734427657</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839441</v>
+        <v>181.1112734427657</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L40" t="n">
         <v>661.2306482927024</v>
@@ -7347,37 +7347,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P40" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S40" t="n">
-        <v>1780.96276986786</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T40" t="n">
-        <v>1559.196154437386</v>
+        <v>1644.746393431757</v>
       </c>
       <c r="U40" t="n">
-        <v>1270.093287563029</v>
+        <v>1355.6435265574</v>
       </c>
       <c r="V40" t="n">
-        <v>1015.408799357142</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W40" t="n">
-        <v>725.9916293201816</v>
+        <v>811.5418683145529</v>
       </c>
       <c r="X40" t="n">
-        <v>498.0020784221642</v>
+        <v>583.5523174165355</v>
       </c>
       <c r="Y40" t="n">
-        <v>277.2094992786341</v>
+        <v>362.7597382730054</v>
       </c>
     </row>
     <row r="41">
@@ -7390,19 +7390,19 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7426,13 +7426,13 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232731</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679677</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188665</v>
+        <v>4689.712021827577</v>
       </c>
       <c r="R41" t="n">
         <v>4778.05172241972</v>
@@ -7444,19 +7444,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D42" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F42" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839441</v>
@@ -7496,7 +7496,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7523,7 +7523,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>492.7083461157126</v>
+        <v>781.811212990069</v>
       </c>
       <c r="C43" t="n">
-        <v>323.7721631878057</v>
+        <v>612.8750300621621</v>
       </c>
       <c r="D43" t="n">
-        <v>323.7721631878057</v>
+        <v>462.7583906498263</v>
       </c>
       <c r="E43" t="n">
-        <v>323.7721631878057</v>
+        <v>314.8452970674332</v>
       </c>
       <c r="F43" t="n">
-        <v>323.7721631878057</v>
+        <v>167.9553495695228</v>
       </c>
       <c r="G43" t="n">
-        <v>156.0693265625247</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H43" t="n">
         <v>95.56103444839441</v>
@@ -7602,19 +7602,19 @@
         <v>1956.343466104704</v>
       </c>
       <c r="U43" t="n">
-        <v>1667.240599230347</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V43" t="n">
-        <v>1412.556111024461</v>
+        <v>1701.658977898817</v>
       </c>
       <c r="W43" t="n">
-        <v>1123.1389409875</v>
+        <v>1412.241807861856</v>
       </c>
       <c r="X43" t="n">
-        <v>895.1493900894825</v>
+        <v>1184.252256963839</v>
       </c>
       <c r="Y43" t="n">
-        <v>674.3568109459524</v>
+        <v>963.4596778203087</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
         <v>2005.253839749764</v>
@@ -7633,19 +7633,19 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
         <v>451.8458144277729</v>
@@ -7654,46 +7654,46 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1898.858917622687</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2432.390822294612</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>2979.169639353394</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K45" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7745,16 +7745,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95.56103444839441</v>
+        <v>508.0400813400981</v>
       </c>
       <c r="C46" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7839,19 +7839,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U46" t="n">
-        <v>1163.957642384228</v>
+        <v>1427.887846248846</v>
       </c>
       <c r="V46" t="n">
-        <v>909.2731541783409</v>
+        <v>1427.887846248846</v>
       </c>
       <c r="W46" t="n">
-        <v>619.8559841413803</v>
+        <v>1138.470676211885</v>
       </c>
       <c r="X46" t="n">
-        <v>391.866433243363</v>
+        <v>910.481125313868</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.0738540998329</v>
+        <v>689.6885461703379</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,10 +8297,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050818</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516231</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.658803395178</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,7 +8692,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>288.0478149561032</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8704,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8932,25 +8932,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>57.67224444723826</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9166,13 +9166,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>89.52456338961929</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9181,13 +9181,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>135.6385654278958</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9400,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>170.1140909277287</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9415,16 +9415,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>103.7862464855144</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476822</v>
+        <v>258.6211785616921</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,16 +9874,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>231.5010718068643</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9892,13 +9892,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>133.2530576400256</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10117,16 +10117,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
         <v>344.7025836476838</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10354,7 +10354,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>344.7025836476828</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476829</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>29.61882225792191</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>132.9990175570114</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>258.6211785616945</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476829</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>29.61882225792002</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11302,7 +11302,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>344.7025836476828</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>126.3377835697261</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>26.74579205433167</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>81.33107165459978</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>146.0121421304423</v>
       </c>
     </row>
     <row r="17">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,13 +23901,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>15.46453942880456</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>16.14213605696571</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>271.1000969860411</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,10 +24654,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>16.14213605696631</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>112.4945564668043</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>43.60786094376957</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25128,10 +25128,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>16.14213605696631</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>95.63533419086298</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>192.2865164382415</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>81.33107165460069</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>16.14213605696617</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>94.35543628911108</v>
       </c>
       <c r="H43" t="n">
-        <v>84.8518057213318</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25842,7 +25842,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>105.0742887270132</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26040,10 +26040,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>261.290901825972</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>795136.178497029</v>
+        <v>795136.1784970292</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>795136.1784970291</v>
+        <v>795136.1784970292</v>
       </c>
     </row>
     <row r="7">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>795136.1784970291</v>
+        <v>795136.1784970292</v>
       </c>
     </row>
     <row r="15">
@@ -26316,43 +26316,43 @@
         <v>636307.3716448199</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="D2" t="n">
         <v>636307.3716448197</v>
       </c>
       <c r="E2" t="n">
-        <v>615476.7696748237</v>
+        <v>615476.7696748235</v>
       </c>
       <c r="F2" t="n">
+        <v>615476.7696748236</v>
+      </c>
+      <c r="G2" t="n">
+        <v>615476.7696748234</v>
+      </c>
+      <c r="H2" t="n">
+        <v>615476.7696748234</v>
+      </c>
+      <c r="I2" t="n">
+        <v>615476.769674824</v>
+      </c>
+      <c r="J2" t="n">
         <v>615476.7696748233</v>
       </c>
-      <c r="G2" t="n">
-        <v>615476.7696748242</v>
-      </c>
-      <c r="H2" t="n">
-        <v>615476.7696748237</v>
-      </c>
-      <c r="I2" t="n">
-        <v>615476.7696748233</v>
-      </c>
-      <c r="J2" t="n">
-        <v>615476.7696748241</v>
-      </c>
       <c r="K2" t="n">
-        <v>615476.7696748232</v>
+        <v>615476.7696748235</v>
       </c>
       <c r="L2" t="n">
-        <v>615476.7696748232</v>
+        <v>615476.7696748234</v>
       </c>
       <c r="M2" t="n">
-        <v>615476.7696748233</v>
+        <v>615476.7696748235</v>
       </c>
       <c r="N2" t="n">
-        <v>615476.7696748239</v>
+        <v>615476.7696748235</v>
       </c>
       <c r="O2" t="n">
-        <v>615476.7696748233</v>
+        <v>615476.7696748234</v>
       </c>
       <c r="P2" t="n">
         <v>615476.7696748236</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389446</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>192206.5963924297</v>
       </c>
       <c r="C4" t="n">
+        <v>192206.5963924297</v>
+      </c>
+      <c r="D4" t="n">
         <v>192206.5963924298</v>
       </c>
-      <c r="D4" t="n">
-        <v>192206.5963924297</v>
-      </c>
       <c r="E4" t="n">
+        <v>21619.60799709189</v>
+      </c>
+      <c r="F4" t="n">
+        <v>21619.60799709185</v>
+      </c>
+      <c r="G4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
+        <v>21619.60799709186</v>
+      </c>
+      <c r="J4" t="n">
         <v>21619.60799709182</v>
-      </c>
-      <c r="H4" t="n">
-        <v>21619.60799709185</v>
-      </c>
-      <c r="I4" t="n">
-        <v>21619.60799709185</v>
-      </c>
-      <c r="J4" t="n">
-        <v>21619.60799709188</v>
       </c>
       <c r="K4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="L4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="M4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="N4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709189</v>
       </c>
       <c r="O4" t="n">
         <v>21619.60799709186</v>
       </c>
       <c r="P4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709187</v>
       </c>
     </row>
     <row r="5">
@@ -26475,13 +26475,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371366</v>
@@ -26499,7 +26499,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
         <v>96383.51825371364</v>
@@ -26511,7 +26511,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-228726.1820255638</v>
       </c>
       <c r="C6" t="n">
-        <v>361241.6971889808</v>
+        <v>361241.6971889805</v>
       </c>
       <c r="D6" t="n">
         <v>361241.6971889805</v>
       </c>
       <c r="E6" t="n">
-        <v>-230575.7254716463</v>
+        <v>-229970.9660596145</v>
       </c>
       <c r="F6" t="n">
-        <v>496801.6885217598</v>
+        <v>497406.4479337924</v>
       </c>
       <c r="G6" t="n">
-        <v>496801.6885217605</v>
+        <v>497406.4479337918</v>
       </c>
       <c r="H6" t="n">
-        <v>496801.6885217603</v>
+        <v>497406.4479337921</v>
       </c>
       <c r="I6" t="n">
-        <v>496801.6885217598</v>
+        <v>497406.4479337927</v>
       </c>
       <c r="J6" t="n">
-        <v>320378.4693291678</v>
+        <v>320983.2287411991</v>
       </c>
       <c r="K6" t="n">
-        <v>496801.6885217597</v>
+        <v>497406.4479337922</v>
       </c>
       <c r="L6" t="n">
-        <v>496801.6885217598</v>
+        <v>497406.4479337921</v>
       </c>
       <c r="M6" t="n">
-        <v>367159.3736828151</v>
+        <v>367764.1330948476</v>
       </c>
       <c r="N6" t="n">
-        <v>496801.6885217605</v>
+        <v>497406.4479337923</v>
       </c>
       <c r="O6" t="n">
-        <v>496801.6885217599</v>
+        <v>497406.447933792</v>
       </c>
       <c r="P6" t="n">
-        <v>496801.6885217602</v>
+        <v>497406.4479337923</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26752,13 +26752,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762115</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>56.06131834756673</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,10 +27393,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>115.0097409135791</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>85.19271039829698</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>252.4395314969248</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>32.06708939393752</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>11.51232345689996</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,19 +27830,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>243.2051448974512</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>44.41868456822104</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>67.27672374555073</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28013,28 +28013,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831826</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>63.37316471551358</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28329,7 +28329,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -29286,7 +29286,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>-1.125499693443999e-12</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32235,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32387,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32472,40 +32472,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138797</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32624,43 +32624,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
         <v>44.86703772844668</v>
@@ -32709,40 +32709,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002919</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32861,43 +32861,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
         <v>0.1071911508780295</v>
@@ -33037,7 +33037,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
         <v>557.708647897025</v>
@@ -33502,7 +33502,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138796</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34447,7 +34447,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>410.0055067279169</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,25 +35412,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>625.2391015115037</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R11" t="n">
         <v>125.3296184152072</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>513.2623588395702</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O14" t="n">
-        <v>852.7555845359029</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554006</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427827</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302269</v>
+        <v>628.4456792198461</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248957</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>534.4005516472678</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636243</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687127</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>625.704205320061</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230594</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248957</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509647</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.761986219372</v>
+        <v>502.5482327048862</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037196</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222484</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407864</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265653</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923323</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>852.7555845359016</v>
+        <v>766.6741794499112</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636243</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859617</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>687.0911861991965</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
         <v>989.6487598248956</v>
@@ -36612,13 +36612,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>532.0150438593975</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36685,7 +36685,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
         <v>415.1124034525806</v>
@@ -36837,7 +36837,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>800.2926980400159</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
@@ -36846,7 +36846,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
@@ -37074,7 +37074,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>800.292698040015</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
@@ -37083,7 +37083,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P32" t="n">
         <v>720.5606943908545</v>
@@ -37150,7 +37150,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340054</v>
@@ -37308,28 +37308,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>89.23202080014663</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597718</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>323.786018525724</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>766.6741794499135</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37794,7 +37794,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908545</v>
@@ -37803,7 +37803,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>89.2320208001448</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>800.292698040015</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
@@ -38031,7 +38031,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P44" t="n">
         <v>720.5606943908545</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597718</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
